--- a/Instructions/BOM Loop.xlsx
+++ b/Instructions/BOM Loop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Pierre\Documents\GitHub\Loop-automatization-Mod\Instructions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63B20468-3C2A-413B-AA86-396227F9AD80}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8211F34A-0E71-4B4C-BF58-C914B2D3602F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="450" windowWidth="28800" windowHeight="12360" xr2:uid="{5E82EB64-A294-4C7B-8DB9-F7B2F90E5586}"/>
+    <workbookView xWindow="0" yWindow="900" windowWidth="28800" windowHeight="12360" xr2:uid="{5E82EB64-A294-4C7B-8DB9-F7B2F90E5586}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -183,7 +183,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -191,11 +191,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -203,6 +218,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -612,7 +631,7 @@
   <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P22" sqref="P22"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -639,230 +658,241 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="A5" s="3">
         <v>2</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="A6" s="3">
+        <v>1</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>1</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="A7" s="3">
+        <v>1</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>1</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="A8" s="3">
+        <v>1</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>1</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="A9" s="3">
+        <v>1</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>1</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>1</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="A11" s="3">
+        <v>1</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>1</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="A12" s="3">
+        <v>1</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>1</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="A13" s="3">
+        <v>1</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="4" t="s">
         <v>34</v>
       </c>
     </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+    </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+      <c r="A16" s="3">
         <v>16</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+      <c r="A17" s="3">
         <v>5</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="4" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+      <c r="A18" s="3">
         <v>3</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+      <c r="A19" s="3">
         <v>14</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="C19" s="4"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>1</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="A20" s="3">
+        <v>1</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+      <c r="A21" s="3">
         <v>2</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>1</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="A22" s="3">
+        <v>1</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>1</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="A23" s="3">
+        <v>1</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="4" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
+      <c r="A24" s="3">
         <v>6</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
+      <c r="A25" s="3">
         <v>6</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>1</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="A26" s="3">
+        <v>1</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="4" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
+      <c r="A27" s="3">
         <v>4</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="4" t="s">
         <v>40</v>
       </c>
     </row>
@@ -877,6 +907,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Instructions/BOM Loop.xlsx
+++ b/Instructions/BOM Loop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Pierre\Documents\GitHub\Loop-automatization-Mod\Instructions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8211F34A-0E71-4B4C-BF58-C914B2D3602F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B50696C-2A66-4D48-AB0E-42800B860499}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="900" windowWidth="28800" windowHeight="12360" xr2:uid="{5E82EB64-A294-4C7B-8DB9-F7B2F90E5586}"/>
+    <workbookView xWindow="0" yWindow="1350" windowWidth="28800" windowHeight="12360" xr2:uid="{5E82EB64-A294-4C7B-8DB9-F7B2F90E5586}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -631,7 +631,7 @@
   <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -768,7 +768,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>35</v>

--- a/Instructions/BOM Loop.xlsx
+++ b/Instructions/BOM Loop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Pierre\Documents\GitHub\Loop-automatization-Mod\Instructions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B50696C-2A66-4D48-AB0E-42800B860499}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E7332CA-E76D-4DCE-84BD-848B39EC3C66}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1350" windowWidth="28800" windowHeight="12360" xr2:uid="{5E82EB64-A294-4C7B-8DB9-F7B2F90E5586}"/>
+    <workbookView xWindow="0" yWindow="1800" windowWidth="28800" windowHeight="12360" xr2:uid="{5E82EB64-A294-4C7B-8DB9-F7B2F90E5586}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="56">
   <si>
     <t>BOM Loop</t>
   </si>
@@ -57,9 +57,6 @@
     <t>Belt Ejector Arm</t>
   </si>
   <si>
-    <t>62cm PTFE Tube</t>
-  </si>
-  <si>
     <t>Reverse Bowden Feed-in</t>
   </si>
   <si>
@@ -154,16 +151,66 @@
   </si>
   <si>
     <t>Top Belt Idler GT2 Idler, use some Loctite 243 to secure the bolt</t>
+  </si>
+  <si>
+    <t>Links (DE)</t>
+  </si>
+  <si>
+    <t>https://www.roboter-bausatz.de/p/riemenscheibe-gt2-20-zaehne-8mm-bohrung-fuer-6mm-riemen</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>https://www.roboter-bausatz.de/p/gt2-riemenscheibe-20-zaehne-5mm-bohrung-mit-dual-kugellager</t>
+  </si>
+  <si>
+    <t>https://www.roboter-bausatz.de/p/gt2-riemenscheibe-60-zaehne-8mm-bohrung-fuer-6mm-zahnriemen</t>
+  </si>
+  <si>
+    <t>https://www.roboter-bausatz.de/p/yourdroid-gt2-zahnriemen-offen-6mm-1-meter-faserverstaerkt</t>
+  </si>
+  <si>
+    <t>https://www.dold-mechatronik.de/Praezisionswelle-8mm-h6-geschliffen-und-gehaertet-Material-CF53-Zuschnitt</t>
+  </si>
+  <si>
+    <t>62cm PTFE Tube OD 4mm</t>
+  </si>
+  <si>
+    <t>https://www.roboter-bausatz.de/p/1-meter-ptfe-schlauch-3-mm-x-4-mm-fuer-bowden-extruder</t>
+  </si>
+  <si>
+    <t>https://www.roboter-bausatz.de/p/pc4-m6-bowden-schnellverbinder-straight-through</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/ruthex-Gewindeeinsatz-St%C3%BCck-Gewindebuchsen-Kunststoffteile/dp/B08BCRZZS3/ref=asc_df_B08BCRZZS3/?tag=googshopde-21&amp;linkCode=df0&amp;hvadid=447474280276&amp;hvpos=&amp;hvnetw=g&amp;hvrand=17021713628145388028&amp;hvpone=&amp;hvptwo=&amp;hvqmt=&amp;hvdev=c&amp;hvdvcmdl=&amp;hvlocint=&amp;hvlocphy=9044744&amp;hvtargid=pla-925706318765&amp;psc=1&amp;th=1&amp;psc=1</t>
+  </si>
+  <si>
+    <t>https://www.ebay.de/itm/273816981652?var=574480277127</t>
+  </si>
+  <si>
+    <t>https://www.ebay.de/itm/113023762539?hash=item1a50bdc06b:g:EDcAAOSw4GVYP0VE&amp;amdata=enc%3AAQAHAAAA4OlnJ4XY6wHpd%2Fmz29NJRF8XmZhOFCHMyuDmPXHZSR1dPrPoRUGxtxlwgvwk%2B1g1CVxZvERqf6EIJ%2F%2F%2Fu075MRimgC4duHqF87Ga9Tn7L2eUPtXr%2BpcpBTlxeE7d%2B4yd1Kkz9t%2FBWmEHQrGnrKD6DZonHiCNIzonhra0sSQH2rBVOoEAgwL22vfiXo9DQaiZHyJdIiROD6C%2BicpOjKpqFiEAlmvwU6o71nWAUtTnvEP0sfv60%2FXYCwVeKLRxwPV6k%2BZYgocoA073%2FM33vgo3YJcyPksD72TBWCV%2FCyXfDQgA%7Ctkp%3ABFBM8Ij7ja5g</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/SPAX-Schrauben-Senkkopf-PZ-Vollgewinde-10/dp/B007259QA6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -207,10 +254,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -222,8 +270,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -243,16 +293,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>117377</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>60227</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>149464</xdr:rowOff>
+      <xdr:rowOff>178039</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>188555</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>131405</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>2850</xdr:rowOff>
+      <xdr:rowOff>31425</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -275,7 +325,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="7208098" y="4479218"/>
+          <a:off x="9189298" y="4507793"/>
           <a:ext cx="805886" cy="1290378"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -287,16 +337,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>114301</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>47626</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>454979</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>161409</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>388304</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>47109</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -318,7 +368,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6962776" y="1962150"/>
+          <a:off x="8934451" y="2038350"/>
           <a:ext cx="1559878" cy="2009259"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -628,10 +678,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{086361FB-D7DF-4236-8418-DFC4DE02BCEA}">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -639,14 +689,15 @@
     <col min="1" max="1" width="14.42578125" customWidth="1"/>
     <col min="2" max="2" width="31.7109375" customWidth="1"/>
     <col min="3" max="3" width="56.5703125" customWidth="1"/>
+    <col min="4" max="4" width="30.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -656,8 +707,11 @@
       <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -665,21 +719,33 @@
         <v>4</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>1</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>1</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>1</v>
       </c>
@@ -687,10 +753,16 @@
         <v>5</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>1</v>
       </c>
@@ -700,8 +772,14 @@
       <c r="C8" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>1</v>
       </c>
@@ -711,203 +789,272 @@
       <c r="C9" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>1</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>1</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C11" s="4" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>1</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>1</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>1</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>17</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>5</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>3</v>
       </c>
       <c r="B18" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>14</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C19" s="4"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>1</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>2</v>
       </c>
       <c r="B21" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>1</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>1</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>6</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>6</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>1</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>4</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D5" r:id="rId1" xr:uid="{BE2680BD-C8D4-4448-9DBC-B8268BEFC21D}"/>
+    <hyperlink ref="D6" r:id="rId2" xr:uid="{94D8117F-0FB2-4F84-A726-B2CB69734132}"/>
+    <hyperlink ref="D7" r:id="rId3" xr:uid="{79E68C2B-008F-4F3A-B4CF-C53B469308FE}"/>
+    <hyperlink ref="D10" r:id="rId4" xr:uid="{EA5F3A66-BE42-4172-976C-14642A730237}"/>
+    <hyperlink ref="D11" r:id="rId5" xr:uid="{003CAD70-D9DA-4AC2-92E0-5E2FF3337DAE}"/>
+    <hyperlink ref="D8" r:id="rId6" xr:uid="{F4B4319E-C57C-468B-880F-76019B55535A}"/>
+    <hyperlink ref="D9" r:id="rId7" xr:uid="{24C6EC74-EE0A-4D19-832B-82EDD2E36E88}"/>
+    <hyperlink ref="D12" r:id="rId8" xr:uid="{28B9865F-D03C-44DF-A9F2-F2F7A9E5E583}"/>
+    <hyperlink ref="D16" r:id="rId9" display="https://www.amazon.de/ruthex-Gewindeeinsatz-St%C3%BCck-Gewindebuchsen-Kunststoffteile/dp/B08BCRZZS3/ref=asc_df_B08BCRZZS3/?tag=googshopde-21&amp;linkCode=df0&amp;hvadid=447474280276&amp;hvpos=&amp;hvnetw=g&amp;hvrand=17021713628145388028&amp;hvpone=&amp;hvptwo=&amp;hvqmt=&amp;hvdev=c&amp;hvdvcmdl=&amp;hvlocint=&amp;hvlocphy=9044744&amp;hvtargid=pla-925706318765&amp;psc=1&amp;th=1&amp;psc=1" xr:uid="{BA82E658-8A23-4A88-91DE-B6555B91DD01}"/>
+    <hyperlink ref="D13" r:id="rId10" xr:uid="{1F1E39A7-AC62-4E5E-A756-2BBE31D1144B}"/>
+    <hyperlink ref="D25" r:id="rId11" xr:uid="{E37BAB32-A9ED-46E3-9A45-C101BEB547A3}"/>
+    <hyperlink ref="D26" r:id="rId12" display="https://www.ebay.de/itm/113023762539?hash=item1a50bdc06b:g:EDcAAOSw4GVYP0VE&amp;amdata=enc%3AAQAHAAAA4OlnJ4XY6wHpd%2Fmz29NJRF8XmZhOFCHMyuDmPXHZSR1dPrPoRUGxtxlwgvwk%2B1g1CVxZvERqf6EIJ%2F%2F%2Fu075MRimgC4duHqF87Ga9Tn7L2eUPtXr%2BpcpBTlxeE7d%2B4yd1Kkz9t%2FBWmEHQrGnrKD6DZonHiCNIzonhra0sSQH2rBVOoEAgwL22vfiXo9DQaiZHyJdIiROD6C%2BicpOjKpqFiEAlmvwU6o71nWAUtTnvEP0sfv60%2FXYCwVeKLRxwPV6k%2BZYgocoA073%2FM33vgo3YJcyPksD72TBWCV%2FCyXfDQgA%7Ctkp%3ABFBM8Ij7ja5g" xr:uid="{65242D68-75A5-47BB-9FD0-B608CDEF8188}"/>
+    <hyperlink ref="D27" r:id="rId13" xr:uid="{5C37B913-F6DE-49DD-AB8B-2B67FFB15273}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId14"/>
+  <drawing r:id="rId15"/>
 </worksheet>
 </file>